--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Rankings/estadisticos_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Rankings/estadisticos_Lineal_Estacionario_ARMA.xlsx
@@ -49,25 +49,25 @@
     <t>DeepAR</t>
   </si>
   <si>
+    <t>AV-MCPS</t>
+  </si>
+  <si>
+    <t>MCPS</t>
+  </si>
+  <si>
     <t>LSPM</t>
   </si>
   <si>
-    <t>MCPS</t>
-  </si>
-  <si>
-    <t>AV-MCPS</t>
+    <t>LSPMW</t>
+  </si>
+  <si>
+    <t>EnCQR-LSTM</t>
   </si>
   <si>
     <t>Block Bootstrapping</t>
   </si>
   <si>
     <t>AREPD</t>
-  </si>
-  <si>
-    <t>EnCQR-LSTM</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
   </si>
 </sst>
 </file>
@@ -465,28 +465,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.5460805415511361</v>
+        <v>0.5447937599161985</v>
       </c>
       <c r="C2">
-        <v>0.4682463257718491</v>
+        <v>0.4646553594654657</v>
       </c>
       <c r="D2">
-        <v>0.2782987731794958</v>
+        <v>0.2754920062492004</v>
       </c>
       <c r="E2">
-        <v>0.5096295363116052</v>
+        <v>0.505681280731955</v>
       </c>
       <c r="F2">
-        <v>0.2143484598526887</v>
+        <v>0.2082366093486796</v>
       </c>
       <c r="G2">
-        <v>1.164678117371462</v>
+        <v>1.402716216177075</v>
       </c>
       <c r="H2">
-        <v>0.3305543798226206</v>
+        <v>0.3339870078818524</v>
       </c>
       <c r="I2">
-        <v>0.6657409306246351</v>
+        <v>0.7336270502431753</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.5794887911213552</v>
+        <v>0.5761422966930957</v>
       </c>
       <c r="C3">
-        <v>0.5170913820653189</v>
+        <v>0.5065241690465961</v>
       </c>
       <c r="D3">
-        <v>0.3024691674268229</v>
+        <v>0.3271643765536675</v>
       </c>
       <c r="E3">
-        <v>0.5219586160441894</v>
+        <v>0.5678534251546962</v>
       </c>
       <c r="F3">
-        <v>0.2277196498904718</v>
+        <v>0.2155766733677587</v>
       </c>
       <c r="G3">
-        <v>1.628462936539288</v>
+        <v>3.958171582558486</v>
       </c>
       <c r="H3">
-        <v>0.3651178227994918</v>
+        <v>0.3498675814739572</v>
       </c>
       <c r="I3">
-        <v>0.8301505574133388</v>
+        <v>0.8921518376044052</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.7408776262190067</v>
+        <v>0.7178601808777606</v>
       </c>
       <c r="C4">
-        <v>0.5980882523618625</v>
+        <v>0.5870944641120033</v>
       </c>
       <c r="D4">
-        <v>0.4632131523050608</v>
+        <v>0.5270408901773249</v>
       </c>
       <c r="E4">
-        <v>0.6252222174247883</v>
+        <v>0.7341832075612382</v>
       </c>
       <c r="F4">
-        <v>0.2251722165486058</v>
+        <v>0.2220000015585913</v>
       </c>
       <c r="G4">
-        <v>3.299813765449314</v>
+        <v>5.478279082259902</v>
       </c>
       <c r="H4">
-        <v>0.4089587494119671</v>
+        <v>0.4019135285295485</v>
       </c>
       <c r="I4">
-        <v>0.987645338601816</v>
+        <v>0.9840982775506589</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.7458570662269725</v>
+        <v>0.7288809891666385</v>
       </c>
       <c r="C5">
-        <v>0.5898928085224773</v>
+        <v>0.6013835646651298</v>
       </c>
       <c r="D5">
-        <v>0.520845167495591</v>
+        <v>0.499666269449643</v>
       </c>
       <c r="E5">
-        <v>0.6983176684647673</v>
+        <v>0.685525177465437</v>
       </c>
       <c r="F5">
-        <v>0.2393507727539207</v>
+        <v>0.2194795413627211</v>
       </c>
       <c r="G5">
-        <v>3.864249961523059</v>
+        <v>5.101510944583066</v>
       </c>
       <c r="H5">
-        <v>0.4057348673087459</v>
+        <v>0.406349422224711</v>
       </c>
       <c r="I5">
-        <v>1.012439184249649</v>
+        <v>0.9997596544640805</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.7500291493698359</v>
+        <v>0.7720738198247329</v>
       </c>
       <c r="C6">
-        <v>0.5898265863833553</v>
+        <v>0.605427280381398</v>
       </c>
       <c r="D6">
-        <v>0.6153443449710996</v>
+        <v>0.5228502509078484</v>
       </c>
       <c r="E6">
-        <v>0.8204272400454081</v>
+        <v>0.6772024092547779</v>
       </c>
       <c r="F6">
-        <v>0.2332344185303089</v>
+        <v>0.2168609859330912</v>
       </c>
       <c r="G6">
-        <v>5.298292671722859</v>
+        <v>4.504289444475742</v>
       </c>
       <c r="H6">
-        <v>0.4151974716096914</v>
+        <v>0.4094173808300147</v>
       </c>
       <c r="I6">
-        <v>0.9699151607555064</v>
+        <v>0.9982676362333709</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>1.02468787565879</v>
+        <v>0.7836851223523358</v>
       </c>
       <c r="C7">
-        <v>0.6580683697783047</v>
+        <v>0.6136022944742388</v>
       </c>
       <c r="D7">
-        <v>1.200012640628579</v>
+        <v>0.5318202126432985</v>
       </c>
       <c r="E7">
-        <v>1.171100653315595</v>
+        <v>0.6786146597334513</v>
       </c>
       <c r="F7">
-        <v>0.231448063409146</v>
+        <v>0.2176326281706872</v>
       </c>
       <c r="G7">
-        <v>10.46941693815386</v>
+        <v>4.628305246414173</v>
       </c>
       <c r="H7">
-        <v>0.4394918176777756</v>
+        <v>0.4156655686167114</v>
       </c>
       <c r="I7">
-        <v>1.097225236754336</v>
+        <v>1.009344901367641</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>1.036521441258903</v>
+        <v>0.8488930071618396</v>
       </c>
       <c r="C8">
-        <v>0.6725947783430871</v>
+        <v>0.6126706949338535</v>
       </c>
       <c r="D8">
-        <v>1.219753843625313</v>
+        <v>0.7555946408381106</v>
       </c>
       <c r="E8">
-        <v>1.176776277916514</v>
+        <v>0.8900940807185352</v>
       </c>
       <c r="F8">
-        <v>0.2327959495011027</v>
+        <v>0.2244008802250496</v>
       </c>
       <c r="G8">
-        <v>10.88465143404774</v>
+        <v>8.01472563411582</v>
       </c>
       <c r="H8">
-        <v>0.4447953654746314</v>
+        <v>0.4221332932546538</v>
       </c>
       <c r="I8">
-        <v>1.121794064643314</v>
+        <v>1.028419257152074</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1.078429708425278</v>
+        <v>0.8811661466316971</v>
       </c>
       <c r="C9">
-        <v>0.8761778736285264</v>
+        <v>0.6249337717299044</v>
       </c>
       <c r="D9">
-        <v>0.6845176718058624</v>
+        <v>0.7962505676917104</v>
       </c>
       <c r="E9">
-        <v>0.6347355478600403</v>
+        <v>0.903632726626436</v>
       </c>
       <c r="F9">
-        <v>0.3261623767237963</v>
+        <v>0.2239815994928943</v>
       </c>
       <c r="G9">
-        <v>6.120029954345021</v>
+        <v>7.030717588236891</v>
       </c>
       <c r="H9">
-        <v>0.5693597290285203</v>
+        <v>0.4195728901465672</v>
       </c>
       <c r="I9">
-        <v>1.389848157021197</v>
+        <v>1.048294920752787</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>1.189440126594161</v>
+        <v>0.9422927017414917</v>
       </c>
       <c r="C10">
-        <v>0.6857740909559868</v>
+        <v>0.6459234452112739</v>
       </c>
       <c r="D10">
-        <v>1.338559210684867</v>
+        <v>0.9353805642635797</v>
       </c>
       <c r="E10">
-        <v>1.125369138602792</v>
+        <v>0.9926645537367133</v>
       </c>
       <c r="F10">
-        <v>0.2404940957228302</v>
+        <v>0.2226481929730539</v>
       </c>
       <c r="G10">
-        <v>9.540486000361417</v>
+        <v>8.850479683025767</v>
       </c>
       <c r="H10">
-        <v>0.4650515664898851</v>
+        <v>0.4325646442192692</v>
       </c>
       <c r="I10">
-        <v>1.307101900023651</v>
+        <v>1.088244427732794</v>
       </c>
     </row>
   </sheetData>
